--- a/docss/trend/lithuania/E_neuron.xlsx
+++ b/docss/trend/lithuania/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\lithuania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\lithuania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,9 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1578,15 +1575,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -1602,215 +1599,241 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.4483850821852684</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.44217799603939056</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.45478731207549572</v>
+      <c r="B2" s="5">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.442</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.45500000000000002</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.53829377703368664</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.69584599137306213</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.42314782366156578</v>
+      <c r="B3" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.42299999999999999</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.71444871835410595</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.76268449798226357</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.65083503350615501</v>
+      <c r="B4">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.65100000000000002</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.86059724539518356</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.81543423607945442</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.89653431996703148</v>
+      <c r="B5">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.89700000000000002</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.68096295557916164</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.93373703211545944</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.4669917356222868</v>
+      <c r="B6">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.46700000000000003</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.67733014654368162</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.88283606246113777</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.55686663836240768</v>
+      <c r="B7">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.55700000000000005</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.69738871045410633</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.56626205891370773</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.79711457714438438</v>
+      <c r="B8">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.79700000000000004</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.80490567162632942</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.89034345746040344</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.73040445894002914</v>
+      <c r="B9">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.89</v>
+      </c>
+      <c r="D9">
+        <v>0.73</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.77201184630393982</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.75744032487273216</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.74357757158577442</v>
+      <c r="B10">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.74399999999999999</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.82552752457559109</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.2052622139453888</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.5302710086107254</v>
+      <c r="B11">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C11">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.53</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
-      <c r="B12" s="6">
-        <v>1.0284834392368793</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.2423062473535538</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.89179740287363529</v>
+      <c r="B12">
+        <v>1.028</v>
+      </c>
+      <c r="C12">
+        <v>1.242</v>
+      </c>
+      <c r="D12">
+        <v>0.89200000000000002</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.90237696096301079</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.92321789637207985</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.88962776772677898</v>
+      <c r="B13">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.89</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.94085356220602989</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.98448884859681129</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.99147568829357624</v>
+      <c r="B14">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.99099999999999999</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1818,19 +1841,13 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
